--- a/biology/Botanique/Artocarpus/Artocarpus.xlsx
+++ b/biology/Botanique/Artocarpus/Artocarpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Artocarpus est un genre de plantes à fleurs de la famille des Moraceae. Ce sont des arbres tropicaux comprenant notamment des espèces alimentaires comme l'Arbre à pain (Artocarpus altilis) ou le Jacquier (Artocarpus heterophyllus).
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique Artocarpus, attesté dans la nomenclature de Carl von Linné, est composé du grec artos (άρτος) « pain » et de karpos (καρπός) « fruit », car le fruit à pain, riche en amidon, est doué des propriétés alimentaires du pain[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique Artocarpus, attesté dans la nomenclature de Carl von Linné, est composé du grec artos (άρτος) « pain » et de karpos (καρπός) « fruit », car le fruit à pain, riche en amidon, est doué des propriétés alimentaires du pain.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Liste d'espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre contient 176 d'espèces répertoriées, dont une soixantaine considérées comme valides en 2012[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre contient 176 d'espèces répertoriées, dont une soixantaine considérées comme valides en 2012.
 Parmi elles :
-Selon ITIS      (30 nov. 2012)[3] et Catalogue of Life                                   (30 nov. 2012)[4] :
+Selon ITIS      (30 nov. 2012) et Catalogue of Life                                   (30 nov. 2012) :
 Artocarpus altilis (Parkinson) Fosberg - Arbre à pain
 Artocarpus elasticus Reinw.
 Artocarpus heterophyllus Lam. - Jacquier
@@ -556,7 +572,7 @@
 Artocarpus odoratissimus Blanco - Madang
 Artocarpus rigidus Blume
 Artocarpus tamaran Becc.
-Selon NCBI  (30 nov. 2012)[5] :
+Selon NCBI  (30 nov. 2012) :
 Artocarpus altilis
 Artocarpus anisophyllus
 Artocarpus annulatus
